--- a/example/kerber_landnetz_fl2/scenarios/opf.xlsx
+++ b/example/kerber_landnetz_fl2/scenarios/opf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chujiahe/Desktop/propens-pandapower/example/kerber_landnetz_fl2/scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9A4B97-F63E-E143-8040-8C3D534D7A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B28D13-51C2-AF42-9F73-81D792DB4743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="820" windowWidth="28040" windowHeight="17420" firstSheet="5" activeTab="17" xr2:uid="{2084B393-6D21-FD4B-B70D-EA7120C1C02C}"/>
+    <workbookView xWindow="2200" yWindow="820" windowWidth="28040" windowHeight="17420" xr2:uid="{2084B393-6D21-FD4B-B70D-EA7120C1C02C}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="16" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="134">
   <si>
     <t>wye</t>
   </si>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t>[[0, 1, 15]]</t>
+  </si>
+  <si>
+    <t>use_dc</t>
   </si>
 </sst>
 </file>
@@ -857,18 +860,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800EF47C-ADD7-984D-8831-B2BC1EF8921F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
@@ -878,13 +882,19 @@
       <c r="C1" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2473,7 +2483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6BF575-65DD-464C-8630-F6799233F19C}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/example/kerber_landnetz_fl2/scenarios/opf.xlsx
+++ b/example/kerber_landnetz_fl2/scenarios/opf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chujiahe/Desktop/propens-pandapower/example/kerber_landnetz_fl2/scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B28D13-51C2-AF42-9F73-81D792DB4743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F43C80-906A-F244-BC5A-8102F66F0FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="820" windowWidth="28040" windowHeight="17420" xr2:uid="{2084B393-6D21-FD4B-B70D-EA7120C1C02C}"/>
+    <workbookView xWindow="2200" yWindow="820" windowWidth="28040" windowHeight="17420" activeTab="1" xr2:uid="{2084B393-6D21-FD4B-B70D-EA7120C1C02C}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="16" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="133">
   <si>
     <t>wye</t>
   </si>
@@ -439,9 +439,6 @@
     <t>use_opf</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
     <t>gas1</t>
   </si>
   <si>
@@ -451,10 +448,10 @@
     <t>gas</t>
   </si>
   <si>
-    <t>[[0, 1, 15]]</t>
-  </si>
-  <si>
     <t>use_dc</t>
+  </si>
+  <si>
+    <t>controllable</t>
   </si>
 </sst>
 </file>
@@ -564,7 +561,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -852,7 +849,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -862,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800EF47C-ADD7-984D-8831-B2BC1EF8921F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,7 +880,7 @@
         <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -894,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2432,10 +2429,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF21BB36-86A8-AB45-B6CF-92EEFEBCF330}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2458,21 +2455,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" t="s">
-        <v>132</v>
-      </c>
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2481,15 +2470,22 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6BF575-65DD-464C-8630-F6799233F19C}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="3" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2529,7 +2525,7 @@
         <v>116</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -2544,6 +2540,35 @@
         <v>0</v>
       </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
@@ -2554,10 +2579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A18980-C5F5-904C-A09F-C403C009A87F}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2567,7 +2592,7 @@
     <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2598,8 +2623,11 @@
       <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2630,8 +2658,11 @@
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2662,8 +2693,11 @@
       <c r="K3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2694,8 +2728,11 @@
       <c r="K4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2726,8 +2763,11 @@
       <c r="K5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2758,8 +2798,11 @@
       <c r="K6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2790,8 +2833,11 @@
       <c r="K7" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2822,8 +2868,11 @@
       <c r="K8" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2853,6 +2902,9 @@
       </c>
       <c r="K9" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="L9" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2986,7 +3038,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3048,18 +3100,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9B8466-B32E-3A45-A8E8-7E7227ADE1CD}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="9" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="18.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3087,13 +3141,16 @@
       <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -3111,18 +3168,21 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J2" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1">
         <v>6</v>
@@ -3140,28 +3200,31 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J3" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
     </row>
   </sheetData>
@@ -3264,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3278,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
